--- a/firstExcel.xlsx
+++ b/firstExcel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t xml:space="preserve">FirstName</t>
   </si>
@@ -83,6 +83,15 @@
   </si>
   <si>
     <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XYZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">another</t>
   </si>
 </sst>
 </file>
@@ -205,10 +214,10 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.98"/>
@@ -296,10 +305,20 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
